--- a/testFiles/全工作室直播统一商品模板（自动化）.xlsx
+++ b/testFiles/全工作室直播统一商品模板（自动化）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26505" windowHeight="13140"/>
+    <workbookView windowWidth="26760" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="提报模板(不要删减字段!)" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -1205,136 +1205,127 @@
     <t>麻小</t>
   </si>
   <si>
-    <t>补录供应商001</t>
+    <t>进鑫门业（自动化测试）退</t>
+  </si>
+  <si>
+    <t>百草味有赞旗舰店</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>玩具文体</t>
+  </si>
+  <si>
+    <t>图书-教材-音像</t>
+  </si>
+  <si>
+    <t>育儿书籍</t>
+  </si>
+  <si>
+    <t>进鑫复合门</t>
+  </si>
+  <si>
+    <t>【百草味-抱抱零食1737g/15袋】网红爆款零食大礼包巨型</t>
+  </si>
+  <si>
+    <t>1737G/15包</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=900000&amp;ns=1&amp;abbucket=15</t>
+  </si>
+  <si>
+    <t>立减79元</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>48小时</t>
+  </si>
+  <si>
+    <t>7天内</t>
+  </si>
+  <si>
+    <t>圆通韵达随机发</t>
+  </si>
+  <si>
+    <t>新疆，西藏，青海</t>
+  </si>
+  <si>
+    <t>选中后群对接建</t>
+  </si>
+  <si>
+    <t>超多美食 喂饱你的胃</t>
+  </si>
+  <si>
+    <t>按照实际卖点填。</t>
+  </si>
+  <si>
+    <t>店铺平台</t>
+  </si>
+  <si>
+    <t>合作模式</t>
+  </si>
+  <si>
+    <t>不要乱填</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+  <si>
+    <t>入仓</t>
+  </si>
+  <si>
+    <t>天猫</t>
+  </si>
+  <si>
+    <t>一件代发</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>CPS</t>
+  </si>
+  <si>
+    <t>有赞</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>抖音小店</t>
+  </si>
+  <si>
+    <t>分销</t>
+  </si>
+  <si>
+    <t>快手小店</t>
+  </si>
+  <si>
+    <t>魔筷</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>范例1.你的商品落地抖音精选联盟，店铺平台选"抖音小店"，合作模式选"CPS"</t>
+  </si>
+  <si>
+    <t>范例2.你的商品落地有赞分销，店铺平台选“有赞”，合作模式选"分销"</t>
+  </si>
+  <si>
+    <t>范例3.你的商品落地为天猫旗舰店，店铺平台选"天猫"，合作模式选"CPS"</t>
+  </si>
+  <si>
+    <t>美妆个护</t>
+  </si>
+  <si>
+    <t>食品酒水</t>
   </si>
   <si>
     <t>孕婴用品</t>
-  </si>
-  <si>
-    <t>孕妈专区</t>
-  </si>
-  <si>
-    <t>麻小啊啊32</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=2008&amp;ns=1&amp;abbucket=15</t>
-  </si>
-  <si>
-    <t>麻小;董承;龙竹;三右</t>
-  </si>
-  <si>
-    <t>测试苍穹升级</t>
-  </si>
-  <si>
-    <t>百草味有赞旗舰店</t>
-  </si>
-  <si>
-    <t>食品酒水</t>
-  </si>
-  <si>
-    <t>粮油生鲜</t>
-  </si>
-  <si>
-    <t>水果生鲜</t>
-  </si>
-  <si>
-    <t>腌制蔬菜-泡菜-酱菜-脱水蔬菜</t>
-  </si>
-  <si>
-    <t>【百草味-抱抱零食1737g/15袋】网红爆款零食大礼包巨型</t>
-  </si>
-  <si>
-    <t>1737G/15包</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=2015&amp;ns=1&amp;abbucket=15</t>
-  </si>
-  <si>
-    <t>立减79元</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>48小时</t>
-  </si>
-  <si>
-    <t>7天内</t>
-  </si>
-  <si>
-    <t>圆通韵达随机发</t>
-  </si>
-  <si>
-    <t>新疆，西藏，青海</t>
-  </si>
-  <si>
-    <t>选中后群对接建</t>
-  </si>
-  <si>
-    <t>超多美食 喂饱你的胃</t>
-  </si>
-  <si>
-    <t>按照实际卖点填。</t>
-  </si>
-  <si>
-    <t>店铺平台</t>
-  </si>
-  <si>
-    <t>合作模式</t>
-  </si>
-  <si>
-    <t>不要乱填</t>
-  </si>
-  <si>
-    <t>淘宝</t>
-  </si>
-  <si>
-    <t>入仓</t>
-  </si>
-  <si>
-    <t>天猫</t>
-  </si>
-  <si>
-    <t>一件代发</t>
-  </si>
-  <si>
-    <t>京东</t>
-  </si>
-  <si>
-    <t>CPS</t>
-  </si>
-  <si>
-    <t>有赞</t>
-  </si>
-  <si>
-    <t>CPT</t>
-  </si>
-  <si>
-    <t>抖音小店</t>
-  </si>
-  <si>
-    <t>分销</t>
-  </si>
-  <si>
-    <t>快手小店</t>
-  </si>
-  <si>
-    <t>魔筷</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>范例1.你的商品落地抖音精选联盟，店铺平台选"抖音小店"，合作模式选"CPS"</t>
-  </si>
-  <si>
-    <t>范例2.你的商品落地有赞分销，店铺平台选“有赞”，合作模式选"分销"</t>
-  </si>
-  <si>
-    <t>范例3.你的商品落地为天猫旗舰店，店铺平台选"天猫"，合作模式选"CPS"</t>
-  </si>
-  <si>
-    <t>美妆个护</t>
   </si>
   <si>
     <t>服装鞋配</t>
@@ -1354,13 +1345,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,12 +1408,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1434,20 +1420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1456,6 +1428,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1464,8 +1531,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,17 +1555,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1499,100 +1576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1655,187 +1641,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1898,42 +1884,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1962,6 +1913,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1982,10 +1968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1994,144 +1980,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2178,17 +2164,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2527,15 +2509,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1048576" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:AP3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="30" customHeight="1" zeroHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="30" customHeight="1" zeroHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="26.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
@@ -2709,309 +2691,129 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="85.5" customHeight="1" spans="1:42">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+    <row r="2" s="10" customFormat="1" ht="80" customHeight="1" spans="1:42">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>44141</v>
+      </c>
       <c r="D2" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="14">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="16" t="s">
+      <c r="F2" s="10">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="I2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="L2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="85.5" customHeight="1" spans="1:42">
-      <c r="A3" s="13">
+        <v>49</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="10">
+        <v>69235456778</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20">
+        <v>15</v>
+      </c>
+      <c r="S2" s="20">
+        <v>0</v>
+      </c>
+      <c r="V2" s="21">
+        <v>139</v>
+      </c>
+      <c r="W2" s="21">
+        <v>59.9</v>
+      </c>
+      <c r="X2" s="21">
+        <v>139</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>59.9</v>
+      </c>
+      <c r="Z2" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="AA2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="AD2" s="21">
+        <v>10000</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="21">
+        <f>Y2*AD2</f>
+        <v>599000</v>
+      </c>
+      <c r="AG2" s="21">
+        <v>5000</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="21">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13">
-        <v>1</v>
-      </c>
-      <c r="N3" s="13">
-        <v>1</v>
-      </c>
-      <c r="O3" s="13">
-        <v>1</v>
-      </c>
-      <c r="P3" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>1</v>
-      </c>
-      <c r="R3" s="13">
-        <v>1</v>
-      </c>
-      <c r="S3" s="13">
-        <v>1</v>
-      </c>
-      <c r="T3" s="13">
-        <v>1</v>
-      </c>
-      <c r="U3" s="13">
-        <v>1</v>
-      </c>
-      <c r="V3" s="13">
-        <v>1</v>
-      </c>
-      <c r="W3" s="13">
-        <v>1</v>
-      </c>
-      <c r="X3" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="80" customHeight="1" spans="1:42">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17">
-        <v>44141</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="10">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="16" t="s">
+      <c r="AO2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="10">
-        <v>69235456778</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <v>15</v>
-      </c>
-      <c r="S4" s="22">
-        <v>0</v>
-      </c>
-      <c r="V4" s="23">
-        <v>139</v>
-      </c>
-      <c r="W4" s="23">
-        <v>59.9</v>
-      </c>
-      <c r="X4" s="23">
-        <v>139</v>
-      </c>
-      <c r="Y4" s="23">
-        <v>59.9</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="23">
-        <v>10000</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF4" s="23">
-        <f>Y4*AD4</f>
-        <v>599000</v>
-      </c>
-      <c r="AG4" s="23">
-        <v>5000</v>
-      </c>
-      <c r="AH4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK4" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN4" s="23">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP4" s="23" t="s">
-        <v>59</v>
+      <c r="AP2" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=2015&amp;ns=1&amp;abbucket=15" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=2015&amp;ns=1&amp;abbucket=15"/>
-    <hyperlink ref="P2" r:id="rId4" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=2008&amp;ns=1&amp;abbucket=15" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=2008&amp;ns=1&amp;abbucket=15"/>
+    <hyperlink ref="P2" r:id="rId3" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=900000&amp;ns=1&amp;abbucket=15" tooltip="https://detail.tmall.com/item.htm?spm=a230r.1.14.102.4aa95de3cOTbyV&amp;id=900000&amp;ns=1&amp;abbucket=15"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3041,13 +2843,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="30" customHeight="1" spans="3:8">
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3055,10 +2857,10 @@
     </row>
     <row r="2" customHeight="1" spans="3:8">
       <c r="C2" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -3067,10 +2869,10 @@
     </row>
     <row r="3" customHeight="1" spans="3:8">
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -3079,10 +2881,10 @@
     </row>
     <row r="4" customHeight="1" spans="3:8">
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -3091,10 +2893,10 @@
     </row>
     <row r="5" customHeight="1" spans="3:8">
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -3103,10 +2905,10 @@
     </row>
     <row r="6" customHeight="1" spans="3:8">
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -3115,7 +2917,7 @@
     </row>
     <row r="7" customHeight="1" spans="3:8">
       <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
@@ -3125,7 +2927,7 @@
     </row>
     <row r="8" customHeight="1" spans="3:8">
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -3135,7 +2937,7 @@
     </row>
     <row r="9" customHeight="1" spans="3:8">
       <c r="C9" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
@@ -3145,7 +2947,7 @@
     </row>
     <row r="11" customHeight="1" spans="3:8">
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3155,7 +2957,7 @@
     </row>
     <row r="12" customHeight="1" spans="3:8">
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3165,7 +2967,7 @@
     </row>
     <row r="13" customHeight="1" spans="3:8">
       <c r="C13" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3199,37 +3001,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
